--- a/mcmaster_excel/Wire-Lockable_Rounded_Head_Screws.xlsx
+++ b/mcmaster_excel/Wire-Lockable_Rounded_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,76 +434,60 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>HoleDia.</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr"/>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Each</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>Screws</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bend-and-Stay 304 Stainless Steel Wire</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -520,75 +504,63 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.140"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.083"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.031"</t>
+          <t>HoleDia.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>80,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-203, NASM35275, AN500AD2-4</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>90350A110</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>$14.08</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>8860K11</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>$13.55</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2-56</t>
-        </is>
-      </c>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -618,7 +590,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-204, NASM35275, AN500AD2-5</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-203, NASM35275, AN500AD2-4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -628,12 +600,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>90350A115</t>
+          <t>90350A110</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>10.65</t>
+          <t>$14.08</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -643,7 +615,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>13.55</t>
+          <t>$13.55</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -651,12 +623,16 @@
           <t>2-56</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -686,7 +662,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-205, NASM35275, AN500AD2-6</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-204, NASM35275, AN500AD2-5</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -696,12 +672,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>90350A120</t>
+          <t>90350A115</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>15.40</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -719,12 +695,16 @@
           <t>2-56</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -754,7 +734,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-207, NASM35275, AN500AD2-8</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-205, NASM35275, AN500AD2-6</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -764,12 +744,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>90350A125</t>
+          <t>90350A120</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>15.40</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -787,12 +767,16 @@
           <t>2-56</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -802,17 +786,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.183"</t>
+          <t>0.140"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.107"</t>
+          <t>0.083"</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.037"</t>
+          <t>0.031"</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -822,45 +806,49 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-212, NASM35275, AN500AD4-3</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-207, NASM35275, AN500AD2-8</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>90350A150</t>
+          <t>90350A125</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>8860K12</t>
+          <t>8860K11</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>12.61</t>
+          <t>13.55</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+          <t>2-56</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -890,22 +878,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-213, NASM35275, AN500AD4-4</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-212, NASM35275, AN500AD4-3</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>90350A155</t>
+          <t>90350A150</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>9.22</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -923,12 +911,16 @@
           <t>4-40</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -958,7 +950,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-214, NASM35275, AN500AD4-5</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-213, NASM35275, AN500AD4-4</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -968,12 +960,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>90350A160</t>
+          <t>90350A155</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>9.22</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -991,12 +983,16 @@
           <t>4-40</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1026,7 +1022,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-215, NASM35275, AN500AD4-6</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-214, NASM35275, AN500AD4-5</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1036,12 +1032,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>90350A165</t>
+          <t>90350A160</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9.47</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1059,12 +1055,16 @@
           <t>4-40</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-217, NASM35275, AN500AD4-8</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-215, NASM35275, AN500AD4-6</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1104,12 +1104,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>90350A170</t>
+          <t>90350A165</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>9.47</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1127,12 +1127,16 @@
           <t>4-40</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1152,7 +1156,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.035"</t>
+          <t>0.037"</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1162,22 +1166,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-219</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-217, NASM35275, AN500AD4-8</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>90350A311</t>
+          <t>90350A170</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1195,12 +1199,16 @@
           <t>4-40</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1210,17 +1218,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.226"</t>
+          <t>0.183"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.107"</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.046"</t>
+          <t>0.035"</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1230,7 +1238,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-225, NASM35275, AN500AD6-3</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-219</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1240,35 +1248,39 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>90350A205</t>
+          <t>90350A311</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>11.69</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>8860K13</t>
+          <t>8860K12</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>12.15</t>
+          <t>12.61</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>6-32</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1298,22 +1310,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-226, NASM35275, AN500AD6-4</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-225, NASM35275, AN500AD6-3</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>90350A210</t>
+          <t>90350A205</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>11.69</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1331,12 +1343,16 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1366,7 +1382,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-227, NASM35275, AN500AD6-5</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-226, NASM35275, AN500AD6-4</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1376,12 +1392,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>90350A215</t>
+          <t>90350A210</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>9.33</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1399,12 +1415,16 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1434,7 +1454,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-228, NASM35275, AN500AD6-6</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-227, NASM35275, AN500AD6-5</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1444,12 +1464,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>90350A220</t>
+          <t>90350A215</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>13.21</t>
+          <t>9.33</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1467,12 +1487,16 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1502,7 +1526,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-230, NASM35275, AN500AD6-8</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-228, NASM35275, AN500AD6-6</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1512,12 +1536,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>90350A225</t>
+          <t>90350A220</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>10.43</t>
+          <t>13.21</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1535,12 +1559,16 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1570,22 +1598,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-232, NASM35275, AN500AD6-12</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-230, NASM35275, AN500AD6-8</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>90350A230</t>
+          <t>90350A225</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>10.43</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1603,12 +1631,16 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1628,7 +1660,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.035"</t>
+          <t>0.046"</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1638,7 +1670,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-234</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-232, NASM35275, AN500AD6-12</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1648,22 +1680,22 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>90350A312</t>
+          <t>90350A230</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>12.19</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>8860K12</t>
+          <t>8860K13</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>12.61</t>
+          <t>12.15</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1671,12 +1703,16 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1686,17 +1722,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.226"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.156"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.047"</t>
+          <t>0.035"</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1706,7 +1742,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-241</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-234</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1716,35 +1752,39 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>90350A313</t>
+          <t>90350A312</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>14.60</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>8860K13</t>
+          <t>8860K12</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>12.15</t>
+          <t>12.61</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>8-32</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1764,7 +1804,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.046"</t>
+          <t>0.047"</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1774,7 +1814,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-243, NASM35275, AN500AD8-6</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-241</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1784,12 +1824,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>90350A265</t>
+          <t>90350A313</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>14.60</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1807,12 +1847,16 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1842,7 +1886,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-245, NASM35275, AN500AD8-8</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-243, NASM35275, AN500AD8-6</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1852,12 +1896,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>90350A270</t>
+          <t>90350A265</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1875,12 +1919,16 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1910,7 +1958,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-247, NASM35275, AN500AD8-12</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-245, NASM35275, AN500AD8-8</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1920,12 +1968,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>90350A275</t>
+          <t>90350A270</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1943,12 +1991,16 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1968,7 +2020,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.047"</t>
+          <t>0.046"</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1978,7 +2030,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-249</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-247, NASM35275, AN500AD8-12</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1988,12 +2040,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>90350A314</t>
+          <t>90350A275</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>18.80</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2011,12 +2063,16 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2026,12 +2082,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.313"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>0.156"</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2046,7 +2102,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35276-259</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-249</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2056,12 +2112,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>90350A315</t>
+          <t>90350A314</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2076,15 +2132,19 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10-32</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2104,7 +2164,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.046"</t>
+          <t>0.047"</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2114,7 +2174,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35276-261, NASM35275, NASM35276, AN501AD10-6</t>
+          <t>Fed. Spec. QQ-P-35, MS35276-259</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2124,12 +2184,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>90350A300</t>
+          <t>90350A315</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>8.11</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2147,12 +2207,16 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2182,7 +2246,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35276-263, NASM35276, AN501AD10-8</t>
+          <t>Fed. Spec. QQ-P-35, MS35276-261, NASM35275, NASM35276, AN501AD10-6</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2192,12 +2256,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>90350A305</t>
+          <t>90350A300</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>8.11</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2215,12 +2279,16 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2250,7 +2318,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35276-265, NASM35276, AN501AD10-12</t>
+          <t>Fed. Spec. QQ-P-35, MS35276-263, NASM35276, AN501AD10-8</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2260,12 +2328,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>90350A310</t>
+          <t>90350A305</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>9.16</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2283,12 +2351,16 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2308,7 +2380,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.047"</t>
+          <t>0.046"</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2318,7 +2390,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35276-267</t>
+          <t>Fed. Spec. QQ-P-35, MS35276-265, NASM35276, AN501AD10-12</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2328,12 +2400,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>90350A316</t>
+          <t>90350A310</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>9.16</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2351,12 +2423,16 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2366,12 +2442,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.414"</t>
+          <t>0.313"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.237"</t>
+          <t>0.180"</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2386,7 +2462,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-277</t>
+          <t>Fed. Spec. QQ-P-35, MS35276-267</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2396,12 +2472,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>90350A317</t>
+          <t>90350A316</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>16.20</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2416,15 +2492,19 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2454,7 +2534,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-279</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-277</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2464,12 +2544,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>90350A318</t>
+          <t>90350A317</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>16.20</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2487,12 +2567,16 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2522,7 +2606,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Fed. Spec. QQ-P-35, MS35275-281</t>
+          <t>Fed. Spec. QQ-P-35, MS35275-279</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2532,12 +2616,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>90350A319</t>
+          <t>90350A318</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>16.50</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2555,75 +2639,155 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.414"</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.237"</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.047"</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Fed. Spec. QQ-P-35, MS35275-281</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>90350A319</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>16.50</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>8860K13</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>1"</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>0.414"</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>0.237"</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>0.047"</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>Fed. Spec. QQ-P-35, MS35275-283</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>90350A321</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>14.66</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>8860K13</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>12.15</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
